--- a/main/data/add_two_numbers.xlsx
+++ b/main/data/add_two_numbers.xlsx
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>22.43304252624512</v>
+        <v>17.10987091064453</v>
       </c>
       <c r="D2" t="n">
-        <v>1320</v>
+        <v>181</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>
@@ -487,10 +487,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>22.43590354919434</v>
+        <v>16.53409004211426</v>
       </c>
       <c r="D3" t="n">
-        <v>856</v>
+        <v>175</v>
       </c>
       <c r="E3" t="inlineStr"/>
     </row>
@@ -504,10 +504,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>25.68817138671875</v>
+        <v>16.64018630981445</v>
       </c>
       <c r="D4" t="n">
-        <v>1760</v>
+        <v>196</v>
       </c>
       <c r="E4" t="inlineStr"/>
     </row>
@@ -521,10 +521,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>21.68178558349609</v>
+        <v>16.49308204650879</v>
       </c>
       <c r="D5" t="n">
-        <v>1408</v>
+        <v>184</v>
       </c>
       <c r="E5" t="inlineStr"/>
     </row>
@@ -538,10 +538,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>21.58713340759277</v>
+        <v>16.56007766723633</v>
       </c>
       <c r="D6" t="n">
-        <v>1496</v>
+        <v>184</v>
       </c>
       <c r="E6" t="inlineStr"/>
     </row>

--- a/main/data/add_two_numbers.xlsx
+++ b/main/data/add_two_numbers.xlsx
@@ -451,7 +451,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Memory Usage (mb)</t>
+          <t>Memory Usage (bytes)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -470,7 +470,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>17.10987091064453</v>
+        <v>20.9958553314209</v>
       </c>
       <c r="D2" t="n">
         <v>181</v>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>16.53409004211426</v>
+        <v>17.98081398010254</v>
       </c>
       <c r="D3" t="n">
         <v>175</v>
@@ -504,7 +504,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>16.64018630981445</v>
+        <v>17.68088340759277</v>
       </c>
       <c r="D4" t="n">
         <v>196</v>
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>16.49308204650879</v>
+        <v>17.72093772888184</v>
       </c>
       <c r="D5" t="n">
         <v>184</v>
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>16.56007766723633</v>
+        <v>18.0511474609375</v>
       </c>
       <c r="D6" t="n">
         <v>184</v>

--- a/main/data/add_two_numbers.xlsx
+++ b/main/data/add_two_numbers.xlsx
@@ -470,7 +470,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>20.9958553314209</v>
+        <v>20.91598510742188</v>
       </c>
       <c r="D2" t="n">
         <v>181</v>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>17.98081398010254</v>
+        <v>18.91684532165527</v>
       </c>
       <c r="D3" t="n">
         <v>175</v>
@@ -504,7 +504,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17.68088340759277</v>
+        <v>18.49102973937988</v>
       </c>
       <c r="D4" t="n">
         <v>196</v>
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>17.72093772888184</v>
+        <v>19.8667049407959</v>
       </c>
       <c r="D5" t="n">
         <v>184</v>
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>18.0511474609375</v>
+        <v>21.57688140869141</v>
       </c>
       <c r="D6" t="n">
         <v>184</v>
